--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
@@ -73,36 +73,42 @@
     <t>wrong</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>fucked</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>dark</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -115,76 +121,67 @@
     <t>[UNK]</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>right</t>
+    <t>really</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>watching</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>’</t>
@@ -551,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -670,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -720,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7333333333333333</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,16 +938,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>0.6551724137931034</v>
@@ -1041,16 +1038,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.6166666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1088,16 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,16 +1138,16 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.5555555555555556</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.4242424242424243</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,16 +1238,16 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.375</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6595744680851063</v>
+        <v>0.675</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.2372881355932203</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5652173913043478</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.2213114754098361</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L18">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M18">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,7 +1467,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -1488,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.1639344262295082</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1512,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,38 +1517,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4782608695652174</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C21">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>62</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L21">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21">
-        <v>0.1263157894736842</v>
-      </c>
-      <c r="L21">
-        <v>12</v>
-      </c>
-      <c r="M21">
-        <v>12</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>83</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,13 +1567,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4583333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.03812316715542522</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1612,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>328</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,13 +1617,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1638,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.03313253012048193</v>
+        <v>0.02560240963855422</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1662,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1670,37 +1667,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3846153846153846</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>15</v>
       </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>24</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.02407407407407407</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>527</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1720,13 +1717,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3571428571428572</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1738,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.01948051948051948</v>
+        <v>0.01267281105990783</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1762,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>604</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1770,13 +1767,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1153846153846154</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1788,31 +1785,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>69</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26">
-        <v>0.01280409731113956</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>771</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1820,49 +1793,77 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04026845637583892</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>286</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.009792626728110598</v>
-      </c>
-      <c r="L27">
-        <v>17</v>
-      </c>
-      <c r="M27">
-        <v>17</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1719</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.03716216216216216</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>0.21</v>
+      </c>
+      <c r="F29">
+        <v>0.79</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
